--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C79E0E-B481-44C4-8B38-C6A69B64263B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC12647-107A-441D-A475-BBAE488765F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="284">
   <si>
     <t>字段名称</t>
   </si>
@@ -70,9 +70,6 @@
     <t>创作者ID</t>
   </si>
   <si>
-    <t>content_type</t>
-  </si>
-  <si>
     <t>内容类型</t>
   </si>
   <si>
@@ -334,45 +331,24 @@
     <t>创作者1天内内容种草引导成交金额</t>
   </si>
   <si>
-    <t>expo_pv_1d</t>
-  </si>
-  <si>
     <t>近1日曝光PV</t>
   </si>
   <si>
-    <t>expo_uv_1d</t>
-  </si>
-  <si>
     <t>近1日曝光UV</t>
   </si>
   <si>
-    <t>click_pv_1d</t>
-  </si>
-  <si>
     <t>近1日点击PV</t>
   </si>
   <si>
-    <t>click_uv_1d</t>
-  </si>
-  <si>
     <t>近1日点击UV</t>
   </si>
   <si>
-    <t>consume_pv_1d</t>
-  </si>
-  <si>
     <t>近1日消费PV</t>
   </si>
   <si>
-    <t>consume_time_1d</t>
-  </si>
-  <si>
     <t>近1日消费时长(单位:ms)</t>
   </si>
   <si>
-    <t>consume_uv_1d</t>
-  </si>
-  <si>
     <t>近1日消费UV</t>
   </si>
   <si>
@@ -388,9 +364,6 @@
     <t>近1日有效消费时长(单位:ms)(有效:消费时长&gt;=3s)</t>
   </si>
   <si>
-    <t>consume_uv_1d_valid</t>
-  </si>
-  <si>
     <t>近1日有效消费UV(有效:消费时长&gt;=3s)</t>
   </si>
   <si>
@@ -454,21 +427,12 @@
     <t>近1日互动UV（点赞+评论+分享+收藏）</t>
   </si>
   <si>
-    <t>favor_pv_1d</t>
-  </si>
-  <si>
     <t>近1日点赞PV</t>
   </si>
   <si>
-    <t>favor_uv_1d</t>
-  </si>
-  <si>
     <t>近1日点赞UV</t>
   </si>
   <si>
-    <t>comment_pv_1d</t>
-  </si>
-  <si>
     <t>近1日评论PV</t>
   </si>
   <si>
@@ -658,19 +622,10 @@
     <t>种草引导成交UV</t>
   </si>
   <si>
-    <t>gmt_create</t>
-  </si>
-  <si>
     <t>内容创建时间</t>
   </si>
   <si>
-    <t>publish_time</t>
-  </si>
-  <si>
     <t>内容发布时间</t>
-  </si>
-  <si>
-    <t>content_title</t>
   </si>
   <si>
     <t>内容标题</t>
@@ -887,6 +842,70 @@
   </si>
   <si>
     <t>消费者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些content后面没有商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expo_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expo_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmt_create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_time_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favor_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favor_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_uv_1d_valid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +913,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -906,6 +925,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -920,6 +940,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1001,11 +1030,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1026,6 +1055,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,14 +1382,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="5" max="5" width="13.6484375" customWidth="1"/>
+    <col min="4" max="4" width="28.34765625" customWidth="1"/>
+    <col min="5" max="5" width="28.546875" customWidth="1"/>
     <col min="7" max="7" width="38.94921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1375,10 +1408,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1407,7 +1440,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1430,7 +1463,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1444,19 +1477,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1470,19 +1503,19 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1496,16 +1529,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1519,16 +1552,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1542,16 +1575,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1565,16 +1598,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1588,16 +1621,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1611,16 +1644,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1634,16 +1667,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1657,16 +1690,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1680,16 +1713,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1703,16 +1736,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1726,16 +1759,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1749,16 +1782,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1772,16 +1805,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1795,16 +1828,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" t="s">
-        <v>46</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1818,16 +1851,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1841,16 +1874,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>50</v>
-      </c>
       <c r="E21" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1864,16 +1897,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1887,16 +1920,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
       <c r="E23" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1910,16 +1943,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
       <c r="E24" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1933,16 +1966,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
         <v>57</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -1956,16 +1989,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -1979,16 +2012,16 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="C27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2002,16 +2035,16 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
         <v>63</v>
       </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2025,16 +2058,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
       <c r="E29" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -2048,16 +2081,16 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2071,16 +2104,16 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" t="s">
-        <v>70</v>
-      </c>
       <c r="E31" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2094,16 +2127,16 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" t="s">
-        <v>72</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2117,16 +2150,16 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>74</v>
-      </c>
       <c r="E33" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2140,16 +2173,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2163,16 +2196,16 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" t="s">
-        <v>78</v>
-      </c>
       <c r="E35" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2186,16 +2219,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2209,16 +2242,16 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
         <v>81</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>82</v>
       </c>
-      <c r="D37" t="s">
-        <v>83</v>
-      </c>
       <c r="E37" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2232,16 +2265,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" t="s">
-        <v>85</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2255,16 +2288,16 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
         <v>86</v>
       </c>
-      <c r="C39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" t="s">
-        <v>87</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2278,16 +2311,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
         <v>88</v>
       </c>
-      <c r="C40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" t="s">
-        <v>89</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -2301,16 +2334,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" t="s">
-        <v>91</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -2324,16 +2357,16 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -2347,16 +2380,16 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>95</v>
-      </c>
       <c r="E43" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2370,16 +2403,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>97</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -2393,16 +2426,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
         <v>98</v>
       </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>99</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -2416,16 +2449,16 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
         <v>100</v>
       </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
       <c r="E46" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2439,16 +2472,16 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
         <v>102</v>
       </c>
-      <c r="C47" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" t="s">
-        <v>103</v>
-      </c>
       <c r="E47" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2462,16 +2495,16 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -2485,16 +2518,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2508,16 +2541,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -2531,16 +2564,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" t="s">
-        <v>111</v>
+        <v>18</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -2554,16 +2587,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>276</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -2577,16 +2610,16 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -2600,16 +2633,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" t="s">
-        <v>117</v>
+        <v>18</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>109</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -2623,16 +2656,16 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2646,16 +2679,16 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -2669,16 +2702,16 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>114</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -2692,16 +2725,16 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -2715,16 +2748,16 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -2738,16 +2771,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
@@ -2761,16 +2794,16 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -2784,16 +2817,16 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -2807,16 +2840,16 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -2830,16 +2863,16 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I64" t="s">
         <v>12</v>
@@ -2853,16 +2886,16 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -2876,16 +2909,16 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I66" t="s">
         <v>12</v>
@@ -2899,16 +2932,16 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
@@ -2922,16 +2955,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I68" t="s">
         <v>12</v>
@@ -2945,16 +2978,16 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
@@ -2968,16 +3001,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>279</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I70" t="s">
         <v>12</v>
@@ -2991,16 +3024,16 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I71" t="s">
         <v>12</v>
@@ -3014,16 +3047,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I72" t="s">
         <v>12</v>
@@ -3037,16 +3070,16 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
@@ -3060,16 +3093,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -3083,16 +3116,16 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I75" t="s">
         <v>12</v>
@@ -3106,16 +3139,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I76" t="s">
         <v>12</v>
@@ -3129,16 +3162,16 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
@@ -3152,16 +3185,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -3175,16 +3208,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -3198,16 +3231,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3221,16 +3254,16 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -3244,16 +3277,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I82" t="s">
         <v>12</v>
@@ -3267,16 +3300,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I83" t="s">
         <v>12</v>
@@ -3290,16 +3323,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I84" t="s">
         <v>12</v>
@@ -3313,16 +3346,16 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -3336,16 +3369,16 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -3359,16 +3392,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -3382,16 +3415,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -3405,16 +3438,16 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -3428,16 +3461,16 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -3451,16 +3484,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I91" t="s">
         <v>12</v>
@@ -3474,16 +3507,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I92" t="s">
         <v>12</v>
@@ -3497,16 +3530,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I93" t="s">
         <v>12</v>
@@ -3520,16 +3553,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -3543,16 +3576,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -3566,16 +3599,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -3589,16 +3622,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -3612,16 +3645,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -3635,16 +3668,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -3658,16 +3691,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D100" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -3681,16 +3714,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -3704,16 +3737,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -3727,16 +3760,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -3750,16 +3783,16 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
@@ -3773,16 +3806,16 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
@@ -3796,16 +3829,16 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -3819,16 +3852,16 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>
@@ -3842,16 +3875,19 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
+      </c>
+      <c r="F108" t="s">
+        <v>268</v>
       </c>
       <c r="I108" t="s">
         <v>12</v>
@@ -3865,16 +3901,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
@@ -3888,16 +3924,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D110" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
@@ -3911,16 +3947,16 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
@@ -3934,16 +3970,16 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -3957,16 +3993,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -3980,16 +4016,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I114" t="s">
         <v>12</v>
@@ -4003,16 +4039,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I115" t="s">
         <v>12</v>
@@ -4026,16 +4062,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
@@ -4049,16 +4085,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
@@ -4072,16 +4108,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I118" t="s">
         <v>12</v>
@@ -4095,16 +4131,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I119" t="s">
         <v>12</v>
@@ -4118,16 +4154,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I120" t="s">
         <v>12</v>
@@ -4141,16 +4177,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I121" t="s">
         <v>12</v>
@@ -4164,16 +4200,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I122" t="s">
         <v>12</v>
@@ -4187,16 +4223,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I123" t="s">
         <v>12</v>
@@ -4210,16 +4246,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
@@ -4233,16 +4269,16 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
@@ -4256,16 +4292,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="I126" t="s">
         <v>12</v>
@@ -4279,13 +4315,13 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="I127" t="s">
         <v>12</v>
@@ -4299,16 +4335,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="I128" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="J128" t="s">
         <v>13</v>

--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC12647-107A-441D-A475-BBAE488765F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395F07BA-C60A-480F-BDAC-E3E44A93B21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="289">
   <si>
     <t>字段名称</t>
   </si>
@@ -906,6 +906,26 @@
   </si>
   <si>
     <t>content_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者对内容的“认可度”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者对创作者的“认可度”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者对产品的“认可度”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的action是否有不同管理学含义？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1382,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B128" sqref="B128"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1391,6 +1411,7 @@
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="4" max="4" width="28.34765625" customWidth="1"/>
     <col min="5" max="5" width="28.546875" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" customWidth="1"/>
     <col min="7" max="7" width="38.94921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2575,6 +2596,9 @@
       <c r="E51" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F51" t="s">
+        <v>288</v>
+      </c>
       <c r="I51" t="s">
         <v>12</v>
       </c>
@@ -2920,6 +2944,9 @@
       <c r="E66" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F66" t="s">
+        <v>284</v>
+      </c>
       <c r="I66" t="s">
         <v>12</v>
       </c>
@@ -2943,6 +2970,9 @@
       <c r="E67" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F67" t="s">
+        <v>284</v>
+      </c>
       <c r="I67" t="s">
         <v>12</v>
       </c>
@@ -2966,6 +2996,9 @@
       <c r="E68" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F68" t="s">
+        <v>284</v>
+      </c>
       <c r="I68" t="s">
         <v>12</v>
       </c>
@@ -2989,6 +3022,9 @@
       <c r="E69" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F69" t="s">
+        <v>284</v>
+      </c>
       <c r="I69" t="s">
         <v>12</v>
       </c>
@@ -3012,6 +3048,9 @@
       <c r="E70" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F70" t="s">
+        <v>284</v>
+      </c>
       <c r="I70" t="s">
         <v>12</v>
       </c>
@@ -3035,6 +3074,9 @@
       <c r="E71" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F71" t="s">
+        <v>284</v>
+      </c>
       <c r="I71" t="s">
         <v>12</v>
       </c>
@@ -3058,6 +3100,9 @@
       <c r="E72" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F72" t="s">
+        <v>284</v>
+      </c>
       <c r="I72" t="s">
         <v>12</v>
       </c>
@@ -3081,6 +3126,9 @@
       <c r="E73" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F73" t="s">
+        <v>284</v>
+      </c>
       <c r="I73" t="s">
         <v>12</v>
       </c>
@@ -3104,6 +3152,9 @@
       <c r="E74" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F74" t="s">
+        <v>284</v>
+      </c>
       <c r="I74" t="s">
         <v>12</v>
       </c>
@@ -3127,6 +3178,9 @@
       <c r="E75" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F75" t="s">
+        <v>284</v>
+      </c>
       <c r="I75" t="s">
         <v>12</v>
       </c>
@@ -3150,6 +3204,9 @@
       <c r="E76" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F76" t="s">
+        <v>285</v>
+      </c>
       <c r="I76" t="s">
         <v>12</v>
       </c>
@@ -3173,6 +3230,9 @@
       <c r="E77" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F77" t="s">
+        <v>285</v>
+      </c>
       <c r="I77" t="s">
         <v>12</v>
       </c>
@@ -3196,6 +3256,9 @@
       <c r="E78" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F78" t="s">
+        <v>285</v>
+      </c>
       <c r="I78" t="s">
         <v>12</v>
       </c>
@@ -3219,6 +3282,9 @@
       <c r="E79" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F79" t="s">
+        <v>285</v>
+      </c>
       <c r="I79" t="s">
         <v>12</v>
       </c>
@@ -3242,6 +3308,9 @@
       <c r="E80" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F80" t="s">
+        <v>286</v>
+      </c>
       <c r="I80" t="s">
         <v>12</v>
       </c>
@@ -3265,6 +3334,9 @@
       <c r="E81" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F81" t="s">
+        <v>286</v>
+      </c>
       <c r="I81" t="s">
         <v>12</v>
       </c>
@@ -3288,6 +3360,9 @@
       <c r="E82" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F82" t="s">
+        <v>286</v>
+      </c>
       <c r="I82" t="s">
         <v>12</v>
       </c>
@@ -3311,6 +3386,9 @@
       <c r="E83" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F83" t="s">
+        <v>286</v>
+      </c>
       <c r="I83" t="s">
         <v>12</v>
       </c>
@@ -3334,6 +3412,9 @@
       <c r="E84" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F84" t="s">
+        <v>286</v>
+      </c>
       <c r="I84" t="s">
         <v>12</v>
       </c>
@@ -3357,6 +3438,9 @@
       <c r="E85" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F85" t="s">
+        <v>286</v>
+      </c>
       <c r="I85" t="s">
         <v>12</v>
       </c>
@@ -3380,6 +3464,9 @@
       <c r="E86" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F86" t="s">
+        <v>286</v>
+      </c>
       <c r="I86" t="s">
         <v>12</v>
       </c>
@@ -3403,6 +3490,9 @@
       <c r="E87" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F87" t="s">
+        <v>286</v>
+      </c>
       <c r="I87" t="s">
         <v>12</v>
       </c>
@@ -3426,6 +3516,9 @@
       <c r="E88" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F88" t="s">
+        <v>286</v>
+      </c>
       <c r="I88" t="s">
         <v>12</v>
       </c>
@@ -3449,6 +3542,9 @@
       <c r="E89" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F89" t="s">
+        <v>286</v>
+      </c>
       <c r="I89" t="s">
         <v>12</v>
       </c>
@@ -3794,6 +3890,9 @@
       <c r="E104" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F104" t="s">
+        <v>287</v>
+      </c>
       <c r="I104" t="s">
         <v>12</v>
       </c>
@@ -3817,6 +3916,9 @@
       <c r="E105" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F105" t="s">
+        <v>287</v>
+      </c>
       <c r="I105" t="s">
         <v>12</v>
       </c>
@@ -3840,6 +3942,9 @@
       <c r="E106" s="6" t="s">
         <v>262</v>
       </c>
+      <c r="F106" t="s">
+        <v>287</v>
+      </c>
       <c r="I106" t="s">
         <v>12</v>
       </c>
@@ -3862,6 +3967,9 @@
       </c>
       <c r="E107" s="6" t="s">
         <v>262</v>
+      </c>
+      <c r="F107" t="s">
+        <v>287</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>

--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395F07BA-C60A-480F-BDAC-E3E44A93B21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB92A035-88E8-4FAE-9161-0BC0BCA50CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="320">
   <si>
     <t>字段名称</t>
   </si>
@@ -757,175 +757,300 @@
     <t>品类名称</t>
   </si>
   <si>
+    <t>消费行为时间</t>
+  </si>
+  <si>
+    <t>日期 格式：YYYYMMDD</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为article和video，统计数量，作为两种不同内容分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计数量，作为feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作者身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作者影响力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_publish_content_cnt_td</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和account_id对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和content_id对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visite_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lead_pay_visitor_ids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和商品id对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些content后面没有商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expo_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expo_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmt_create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_time_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favor_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favor_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_uv_1d_valid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>购买行为的消费者id</t>
-  </si>
-  <si>
-    <t>消费行为时间</t>
-  </si>
-  <si>
-    <t>日期 格式：YYYYMMDD</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为article和video，统计数量，作为两种不同内容分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_role</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计数量，作为feature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容身份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作者身份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作者影响力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_publish_content_cnt_td</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和account_id对应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作者id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和content_id对应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visite_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lead_pay_visitor_ids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和商品id对应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有些content后面没有商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expo_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expo_uv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmt_create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>publish_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_uv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_time_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>favor_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>favor_uv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_uv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_uv_1d_valid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者对内容的“认可度”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者对创作者的“认可度”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者对产品的“认可度”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同的action是否有不同管理学含义？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1变量，大多是1？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1变量，μ=0.75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1变量，μ=0.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长尾，μ=47，max=6969</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长尾，μ=8.8，max=735</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长尾，μ=2.5，max=225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长尾，μ=2.58，max=249</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：为何有些创造者一天能发布这么多内容？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：这里的0-1有什么含义？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=995，max=260w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=44，max=29w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=41，max=9w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=286，max=291w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=183，max=115w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=186，max=238w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=128，max=90w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下均长尾 μ=1026，max=261w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=281，max=291w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=87，max=162w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=181，max=115w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=59，max=63w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=1.7，max=8986</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=1.47，max=8986</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.839，max=8985</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.038，max=796</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.25，max=2889</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.538，max=3278</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和content_id对应，engagement score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.191，max=3631</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=10，max=9w，近一半在1-10之间，一半零值，少数头部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=1.03，max=3045，大量0值，10%为1；2以上不到10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.21，max=499</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=0.19，max=460，大量0值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：成交uv和引导加购uv的区别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：如何定义种草？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +1058,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -969,6 +1094,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1050,7 +1189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1219,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1402,17 +1545,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
     <col min="4" max="4" width="28.34765625" customWidth="1"/>
-    <col min="5" max="5" width="28.546875" customWidth="1"/>
+    <col min="5" max="5" width="18.34765625" customWidth="1"/>
     <col min="6" max="6" width="22.59765625" customWidth="1"/>
-    <col min="7" max="7" width="38.94921875" customWidth="1"/>
+    <col min="7" max="7" width="38.94921875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.55000000000000004">
@@ -1429,12 +1574,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1461,7 +1606,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1484,7 +1629,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1498,7 +1643,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1507,10 +1652,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1524,7 +1669,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1533,10 +1678,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1550,7 +1695,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1559,7 +1704,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>293</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1582,7 +1733,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="F7" t="s">
+        <v>285</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1605,7 +1759,10 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>286</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1628,7 +1785,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="F9" t="s">
+        <v>287</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1651,7 +1811,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="F10" t="s">
+        <v>287</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1674,7 +1837,10 @@
         <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
+      </c>
+      <c r="F11" t="s">
+        <v>285</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1697,7 +1863,13 @@
         <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="F12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1720,7 +1892,10 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="F13" t="s">
+        <v>289</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1743,7 +1918,10 @@
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="F14" t="s">
+        <v>290</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1766,7 +1944,10 @@
         <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="F15" t="s">
+        <v>291</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1789,7 +1970,7 @@
         <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1812,7 +1993,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -1835,7 +2016,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1858,7 +2039,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1881,7 +2062,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1904,7 +2085,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1927,7 +2108,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1950,7 +2131,7 @@
         <v>53</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1973,7 +2154,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1996,7 +2177,7 @@
         <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -2019,7 +2200,7 @@
         <v>59</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -2042,7 +2223,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2065,7 +2246,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2088,7 +2269,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -2111,7 +2292,7 @@
         <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2134,7 +2315,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2157,7 +2338,7 @@
         <v>71</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2180,7 +2361,7 @@
         <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2203,7 +2384,7 @@
         <v>75</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2226,7 +2407,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2249,7 +2430,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2272,7 +2453,7 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2295,7 +2476,7 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2318,7 +2499,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2341,7 +2522,7 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -2364,7 +2545,7 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -2387,7 +2568,7 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -2410,7 +2591,7 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2433,7 +2614,7 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -2456,7 +2637,7 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -2479,7 +2660,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2502,7 +2683,7 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2516,7 +2697,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -2525,7 +2706,10 @@
         <v>103</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F48" t="s">
+        <v>301</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -2539,7 +2723,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -2548,7 +2732,10 @@
         <v>104</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F49" t="s">
+        <v>294</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2562,7 +2749,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -2571,7 +2758,10 @@
         <v>105</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>295</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -2585,7 +2775,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -2594,10 +2784,10 @@
         <v>106</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F51" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -2611,7 +2801,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -2620,7 +2810,10 @@
         <v>107</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F52" t="s">
+        <v>297</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -2634,7 +2827,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -2643,7 +2836,7 @@
         <v>108</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -2657,7 +2850,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -2666,7 +2859,10 @@
         <v>109</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F54" t="s">
+        <v>298</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -2689,7 +2885,10 @@
         <v>111</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F55" t="s">
+        <v>299</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2712,7 +2911,7 @@
         <v>113</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -2726,7 +2925,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -2735,7 +2934,10 @@
         <v>114</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F57" t="s">
+        <v>300</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -2758,7 +2960,10 @@
         <v>116</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F58" t="s">
+        <v>302</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -2781,7 +2986,7 @@
         <v>118</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -2804,7 +3009,10 @@
         <v>120</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F60" t="s">
+        <v>304</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
@@ -2827,7 +3035,7 @@
         <v>122</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -2850,7 +3058,7 @@
         <v>124</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -2873,7 +3081,7 @@
         <v>126</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -2896,7 +3104,10 @@
         <v>128</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F64" t="s">
+        <v>303</v>
       </c>
       <c r="I64" t="s">
         <v>12</v>
@@ -2919,7 +3130,10 @@
         <v>130</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="F65" t="s">
+        <v>305</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -2942,10 +3156,10 @@
         <v>132</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="I66" t="s">
         <v>12</v>
@@ -2968,10 +3182,10 @@
         <v>134</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="F67" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
@@ -2985,7 +3199,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -2994,10 +3208,7 @@
         <v>135</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F68" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="I68" t="s">
         <v>12</v>
@@ -3011,7 +3222,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -3020,10 +3231,10 @@
         <v>136</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="F69" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
@@ -3037,7 +3248,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -3046,10 +3257,7 @@
         <v>137</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F70" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="I70" t="s">
         <v>12</v>
@@ -3072,10 +3280,10 @@
         <v>139</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="F71" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="I71" t="s">
         <v>12</v>
@@ -3098,10 +3306,7 @@
         <v>141</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F72" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="I72" t="s">
         <v>12</v>
@@ -3124,10 +3329,10 @@
         <v>143</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="F73" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
@@ -3150,10 +3355,7 @@
         <v>145</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F74" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -3176,10 +3378,10 @@
         <v>147</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="F75" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="I75" t="s">
         <v>12</v>
@@ -3202,10 +3404,7 @@
         <v>149</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F76" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="I76" t="s">
         <v>12</v>
@@ -3228,10 +3427,10 @@
         <v>151</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F77" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
@@ -3254,10 +3453,7 @@
         <v>153</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F78" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -3280,10 +3476,7 @@
         <v>155</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F79" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -3306,10 +3499,7 @@
         <v>157</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F80" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3332,10 +3522,10 @@
         <v>159</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F81" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -3358,10 +3548,7 @@
         <v>161</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F82" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="I82" t="s">
         <v>12</v>
@@ -3384,10 +3571,7 @@
         <v>163</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F83" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="I83" t="s">
         <v>12</v>
@@ -3410,10 +3594,7 @@
         <v>165</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F84" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="I84" t="s">
         <v>12</v>
@@ -3436,10 +3617,10 @@
         <v>167</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F85" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -3462,10 +3643,10 @@
         <v>169</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F86" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -3488,10 +3669,7 @@
         <v>171</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F87" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -3514,10 +3692,7 @@
         <v>173</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="F88" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -3540,10 +3715,13 @@
         <v>175</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F89" t="s">
-        <v>286</v>
+        <v>317</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>318</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -3566,7 +3744,10 @@
         <v>177</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>319</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -3589,7 +3770,7 @@
         <v>179</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I91" t="s">
         <v>12</v>
@@ -3612,7 +3793,7 @@
         <v>181</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I92" t="s">
         <v>12</v>
@@ -3635,7 +3816,7 @@
         <v>183</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I93" t="s">
         <v>12</v>
@@ -3658,7 +3839,7 @@
         <v>185</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -3681,7 +3862,7 @@
         <v>187</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -3704,7 +3885,7 @@
         <v>189</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -3727,7 +3908,7 @@
         <v>191</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -3750,7 +3931,7 @@
         <v>193</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -3773,7 +3954,7 @@
         <v>195</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -3796,7 +3977,7 @@
         <v>197</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -3819,7 +4000,7 @@
         <v>199</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -3833,7 +4014,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -3842,7 +4023,7 @@
         <v>200</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -3856,7 +4037,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -3865,7 +4046,7 @@
         <v>201</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -3879,7 +4060,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -3888,10 +4069,10 @@
         <v>202</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F104" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
@@ -3914,10 +4095,10 @@
         <v>204</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F105" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
@@ -3940,10 +4121,10 @@
         <v>206</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F106" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -3966,10 +4147,10 @@
         <v>208</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F107" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>
@@ -3992,10 +4173,10 @@
         <v>210</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F108" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I108" t="s">
         <v>12</v>
@@ -4018,7 +4199,7 @@
         <v>212</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
@@ -4041,7 +4222,7 @@
         <v>214</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
@@ -4064,7 +4245,7 @@
         <v>216</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
@@ -4087,7 +4268,7 @@
         <v>218</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -4110,7 +4291,7 @@
         <v>220</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -4133,7 +4314,7 @@
         <v>222</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I114" t="s">
         <v>12</v>
@@ -4156,7 +4337,7 @@
         <v>224</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I115" t="s">
         <v>12</v>
@@ -4179,7 +4360,7 @@
         <v>226</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
@@ -4202,7 +4383,7 @@
         <v>228</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
@@ -4225,7 +4406,7 @@
         <v>230</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I118" t="s">
         <v>12</v>
@@ -4248,7 +4429,7 @@
         <v>232</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I119" t="s">
         <v>12</v>
@@ -4271,7 +4452,7 @@
         <v>234</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I120" t="s">
         <v>12</v>
@@ -4294,7 +4475,7 @@
         <v>236</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I121" t="s">
         <v>12</v>
@@ -4317,7 +4498,7 @@
         <v>238</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I122" t="s">
         <v>12</v>
@@ -4340,7 +4521,7 @@
         <v>240</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I123" t="s">
         <v>12</v>
@@ -4363,7 +4544,7 @@
         <v>242</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
@@ -4386,7 +4567,7 @@
         <v>244</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
@@ -4400,16 +4581,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I126" t="s">
         <v>12</v>
@@ -4423,13 +4604,13 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I127" t="s">
         <v>12</v>
@@ -4443,16 +4624,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
       </c>
       <c r="D128" t="s">
+        <v>246</v>
+      </c>
+      <c r="I128" t="s">
         <v>247</v>
-      </c>
-      <c r="I128" t="s">
-        <v>248</v>
       </c>
       <c r="J128" t="s">
         <v>13</v>

--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB92A035-88E8-4FAE-9161-0BC0BCA50CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C2B9DF-0CF2-4B86-86DC-395E73F42BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,636 +421,643 @@
     <t>近1日互动PV（点赞+评论+分享+收藏）</t>
   </si>
   <si>
+    <t>近1日互动UV（点赞+评论+分享+收藏）</t>
+  </si>
+  <si>
+    <t>近1日点赞PV</t>
+  </si>
+  <si>
+    <t>近1日点赞UV</t>
+  </si>
+  <si>
+    <t>近1日评论PV</t>
+  </si>
+  <si>
+    <t>近1日评论UV</t>
+  </si>
+  <si>
+    <t>share_pv_1d</t>
+  </si>
+  <si>
+    <t>近1日分享PV</t>
+  </si>
+  <si>
+    <t>近1日分享UV</t>
+  </si>
+  <si>
+    <t>collect_pv_1d</t>
+  </si>
+  <si>
+    <t>近1日收藏PV</t>
+  </si>
+  <si>
+    <t>近1日收藏UV</t>
+  </si>
+  <si>
+    <t>attention_pv_1d</t>
+  </si>
+  <si>
+    <t>近1日引导关注PV（直接关注+引导个人页关注）</t>
+  </si>
+  <si>
+    <t>近1日引导关注UV（直接关注+引导个人页关注）</t>
+  </si>
+  <si>
+    <t>ipv_pv_1d</t>
+  </si>
+  <si>
+    <t>近1日引导ipv</t>
+  </si>
+  <si>
+    <t>ipv_uv_1d</t>
+  </si>
+  <si>
+    <t>近1日引导ipv_uv</t>
+  </si>
+  <si>
+    <t>lead_shop_pv_1d</t>
+  </si>
+  <si>
+    <t>近1日引导进店PV(ipv+shop_pv)</t>
+  </si>
+  <si>
+    <t>近1日引导进店UV(ipv+shop_pv)</t>
+  </si>
+  <si>
+    <t>cart_cnt_1d</t>
+  </si>
+  <si>
+    <t>近1日引导加购PV</t>
+  </si>
+  <si>
+    <t>cart_item_qty_1d</t>
+  </si>
+  <si>
+    <t>近1日引导加购商品数</t>
+  </si>
+  <si>
+    <t>cart_amt_1d</t>
+  </si>
+  <si>
+    <t>近1日引导加购金额</t>
+  </si>
+  <si>
+    <t>近1日引导加购UV</t>
+  </si>
+  <si>
+    <t>pay_cnt_1d</t>
+  </si>
+  <si>
+    <t>近1日引导成交订单数</t>
+  </si>
+  <si>
+    <t>pay_item_qty_1d</t>
+  </si>
+  <si>
+    <t>近1日引导成交商品数</t>
+  </si>
+  <si>
+    <t>pay_amt_1d</t>
+  </si>
+  <si>
+    <t>近1日引导成交金额</t>
+  </si>
+  <si>
+    <t>pay_buyer_cnt_1d</t>
+  </si>
+  <si>
+    <t>近1日引导成交UV</t>
+  </si>
+  <si>
+    <t>zhongcao_pv_1d</t>
+  </si>
+  <si>
+    <t>近1日种草PV(挂品内容消费3s以上(挂多品算多次种草，按品汇总时去重)或内容引导进入ipv/加购的次数)</t>
+  </si>
+  <si>
+    <t>zhongcao_uv_1d</t>
+  </si>
+  <si>
+    <t>近1日种草UV</t>
+  </si>
+  <si>
+    <t>zhongcao_pv_1d_consume</t>
+  </si>
+  <si>
+    <t>近1日消费种草PV(挂品内容消费3s以上(挂多品算多次种草，按品汇总时去重)或内容引导进入ipv/加购的次数)</t>
+  </si>
+  <si>
+    <t>zhongcao_uv_1d_consume</t>
+  </si>
+  <si>
+    <t>近1日消费种草UV</t>
+  </si>
+  <si>
+    <t>zhongcao_pv_1d_cart</t>
+  </si>
+  <si>
+    <t>近1日加购种草PV</t>
+  </si>
+  <si>
+    <t>zhongcao_uv_1d_cart</t>
+  </si>
+  <si>
+    <t>近1日加购种草UV</t>
+  </si>
+  <si>
+    <t>zhongcao_pv_1d_ipv</t>
+  </si>
+  <si>
+    <t>近1日IPV种草PV</t>
+  </si>
+  <si>
+    <t>zhongcao_uv_1d_ipv</t>
+  </si>
+  <si>
+    <t>近1日IPV种草UV</t>
+  </si>
+  <si>
+    <t>pay_order_cnt_1d_zc</t>
+  </si>
+  <si>
+    <t>种草引导订单数</t>
+  </si>
+  <si>
+    <t>pay_item_qty_1d_zc</t>
+  </si>
+  <si>
+    <t>种草引导商品数</t>
+  </si>
+  <si>
+    <t>pay_amt_1d_zc</t>
+  </si>
+  <si>
+    <t>种草引导成交金额</t>
+  </si>
+  <si>
+    <t>pay_buyer_cnt_1d_zc</t>
+  </si>
+  <si>
+    <t>种草引导成交UV</t>
+  </si>
+  <si>
+    <t>内容创建时间</t>
+  </si>
+  <si>
+    <t>内容发布时间</t>
+  </si>
+  <si>
+    <t>内容标题</t>
+  </si>
+  <si>
+    <t>content_tag_level1_name</t>
+  </si>
+  <si>
+    <t>内容一级分类</t>
+  </si>
+  <si>
+    <t>content_tag_level2_name</t>
+  </si>
+  <si>
+    <t>内容二级分类</t>
+  </si>
+  <si>
+    <t>content_tag_level3_name</t>
+  </si>
+  <si>
+    <t>内容三级分类</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>商品数字ID</t>
+  </si>
+  <si>
+    <t>item_title</t>
+  </si>
+  <si>
+    <t>商品标题</t>
+  </si>
+  <si>
+    <t>reserve_price</t>
+  </si>
+  <si>
+    <t>当前商品价格</t>
+  </si>
+  <si>
+    <t>cate_id</t>
+  </si>
+  <si>
+    <t>商品叶子类目ID</t>
+  </si>
+  <si>
+    <t>cate_name</t>
+  </si>
+  <si>
+    <t>商品叶子类目名称</t>
+  </si>
+  <si>
+    <t>cate_level</t>
+  </si>
+  <si>
+    <t>叶子类目层级</t>
+  </si>
+  <si>
+    <t>cate_level1_id</t>
+  </si>
+  <si>
+    <t>一级类目ID</t>
+  </si>
+  <si>
+    <t>cate_level2_id</t>
+  </si>
+  <si>
+    <t>二级类目ID</t>
+  </si>
+  <si>
+    <t>cate_level3_id</t>
+  </si>
+  <si>
+    <t>三级类目ID</t>
+  </si>
+  <si>
+    <t>cate_level4_id</t>
+  </si>
+  <si>
+    <t>四级类目ID</t>
+  </si>
+  <si>
+    <t>cate_level5_id</t>
+  </si>
+  <si>
+    <t>五级类目ID</t>
+  </si>
+  <si>
+    <t>cate_level1_name</t>
+  </si>
+  <si>
+    <t>一级类目名称</t>
+  </si>
+  <si>
+    <t>cate_level2_name</t>
+  </si>
+  <si>
+    <t>二级类目名称</t>
+  </si>
+  <si>
+    <t>cate_level3_name</t>
+  </si>
+  <si>
+    <t>三级类目名称</t>
+  </si>
+  <si>
+    <t>cate_level4_name</t>
+  </si>
+  <si>
+    <t>四级类目名称</t>
+  </si>
+  <si>
+    <t>cate_level5_name</t>
+  </si>
+  <si>
+    <t>五级类目名称</t>
+  </si>
+  <si>
+    <t>commodity_id</t>
+  </si>
+  <si>
+    <t>品类ID</t>
+  </si>
+  <si>
+    <t>commodity_name</t>
+  </si>
+  <si>
+    <t>品类名称</t>
+  </si>
+  <si>
+    <t>消费行为时间</t>
+  </si>
+  <si>
+    <t>日期 格式：YYYYMMDD</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为article和video，统计数量，作为两种不同内容分析</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计数量，作为feature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作者身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作者影响力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_publish_content_cnt_td</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和account_id对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创作者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和content_id对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visite_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lead_pay_visitor_ids</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和商品id对应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消费者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有些content后面没有商品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expo_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expo_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gmt_create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publish_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_time_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favor_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_pv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>favor_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>consume_uv_1d_valid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买行为的消费者id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1变量，大多是1？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1变量，μ=0.75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-1变量，μ=0.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长尾，μ=47，max=6969</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长尾，μ=8.8，max=735</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长尾，μ=2.5，max=225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长尾，μ=2.58，max=249</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：为何有些创造者一天能发布这么多内容？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：这里的0-1有什么含义？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=995，max=260w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=44，max=29w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=41，max=9w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=286，max=291w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=183，max=115w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=186，max=238w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=128，max=90w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下均长尾 μ=1026，max=261w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=281，max=291w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=87，max=162w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=181，max=115w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=59，max=63w</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=1.7，max=8986</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=1.47，max=8986</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.839，max=8985</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.038，max=796</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.25，max=2889</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.538，max=3278</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和content_id对应，engagement score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.191，max=3631</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=10，max=9w，近一半在1-10之间，一半零值，少数头部</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=1.03，max=3045，大量0值，10%为1；2以上不到10%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量0值，μ=0.21，max=499</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>μ=0.19，max=460，大量0值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：成交uv和引导加购uv的区别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问：如何定义种草？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>itrt_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日互动UV（点赞+评论+分享+收藏）</t>
-  </si>
-  <si>
-    <t>近1日点赞PV</t>
-  </si>
-  <si>
-    <t>近1日点赞UV</t>
-  </si>
-  <si>
-    <t>近1日评论PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>comment_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日评论UV</t>
-  </si>
-  <si>
-    <t>share_pv_1d</t>
-  </si>
-  <si>
-    <t>近1日分享PV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>collect_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>share_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日分享UV</t>
-  </si>
-  <si>
-    <t>collect_pv_1d</t>
-  </si>
-  <si>
-    <t>近1日收藏PV</t>
-  </si>
-  <si>
-    <t>collect_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日收藏UV</t>
-  </si>
-  <si>
-    <t>attention_pv_1d</t>
-  </si>
-  <si>
-    <t>近1日引导关注PV（直接关注+引导个人页关注）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>attention_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日引导关注UV（直接关注+引导个人页关注）</t>
-  </si>
-  <si>
-    <t>ipv_pv_1d</t>
-  </si>
-  <si>
-    <t>近1日引导ipv</t>
-  </si>
-  <si>
-    <t>ipv_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日引导ipv_uv</t>
-  </si>
-  <si>
-    <t>lead_shop_pv_1d</t>
-  </si>
-  <si>
-    <t>近1日引导进店PV(ipv+shop_pv)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>lead_shop_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日引导进店UV(ipv+shop_pv)</t>
-  </si>
-  <si>
-    <t>cart_cnt_1d</t>
-  </si>
-  <si>
-    <t>近1日引导加购PV</t>
-  </si>
-  <si>
-    <t>cart_item_qty_1d</t>
-  </si>
-  <si>
-    <t>近1日引导加购商品数</t>
-  </si>
-  <si>
-    <t>cart_amt_1d</t>
-  </si>
-  <si>
-    <t>近1日引导加购金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cart_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日引导加购UV</t>
-  </si>
-  <si>
-    <t>pay_cnt_1d</t>
-  </si>
-  <si>
-    <t>近1日引导成交订单数</t>
-  </si>
-  <si>
-    <t>pay_item_qty_1d</t>
-  </si>
-  <si>
-    <t>近1日引导成交商品数</t>
-  </si>
-  <si>
-    <t>pay_amt_1d</t>
-  </si>
-  <si>
-    <t>近1日引导成交金额</t>
-  </si>
-  <si>
-    <t>pay_buyer_cnt_1d</t>
-  </si>
-  <si>
-    <t>近1日引导成交UV</t>
-  </si>
-  <si>
-    <t>zhongcao_pv_1d</t>
-  </si>
-  <si>
-    <t>近1日种草PV(挂品内容消费3s以上(挂多品算多次种草，按品汇总时去重)或内容引导进入ipv/加购的次数)</t>
-  </si>
-  <si>
-    <t>zhongcao_uv_1d</t>
-  </si>
-  <si>
-    <t>近1日种草UV</t>
-  </si>
-  <si>
-    <t>zhongcao_pv_1d_consume</t>
-  </si>
-  <si>
-    <t>近1日消费种草PV(挂品内容消费3s以上(挂多品算多次种草，按品汇总时去重)或内容引导进入ipv/加购的次数)</t>
-  </si>
-  <si>
-    <t>zhongcao_uv_1d_consume</t>
-  </si>
-  <si>
-    <t>近1日消费种草UV</t>
-  </si>
-  <si>
-    <t>zhongcao_pv_1d_cart</t>
-  </si>
-  <si>
-    <t>近1日加购种草PV</t>
-  </si>
-  <si>
-    <t>zhongcao_uv_1d_cart</t>
-  </si>
-  <si>
-    <t>近1日加购种草UV</t>
-  </si>
-  <si>
-    <t>zhongcao_pv_1d_ipv</t>
-  </si>
-  <si>
-    <t>近1日IPV种草PV</t>
-  </si>
-  <si>
-    <t>zhongcao_uv_1d_ipv</t>
-  </si>
-  <si>
-    <t>近1日IPV种草UV</t>
-  </si>
-  <si>
-    <t>pay_order_cnt_1d_zc</t>
-  </si>
-  <si>
-    <t>种草引导订单数</t>
-  </si>
-  <si>
-    <t>pay_item_qty_1d_zc</t>
-  </si>
-  <si>
-    <t>种草引导商品数</t>
-  </si>
-  <si>
-    <t>pay_amt_1d_zc</t>
-  </si>
-  <si>
-    <t>种草引导成交金额</t>
-  </si>
-  <si>
-    <t>pay_buyer_cnt_1d_zc</t>
-  </si>
-  <si>
-    <t>种草引导成交UV</t>
-  </si>
-  <si>
-    <t>内容创建时间</t>
-  </si>
-  <si>
-    <t>内容发布时间</t>
-  </si>
-  <si>
-    <t>内容标题</t>
-  </si>
-  <si>
-    <t>content_tag_level1_name</t>
-  </si>
-  <si>
-    <t>内容一级分类</t>
-  </si>
-  <si>
-    <t>content_tag_level2_name</t>
-  </si>
-  <si>
-    <t>内容二级分类</t>
-  </si>
-  <si>
-    <t>content_tag_level3_name</t>
-  </si>
-  <si>
-    <t>内容三级分类</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>商品数字ID</t>
-  </si>
-  <si>
-    <t>item_title</t>
-  </si>
-  <si>
-    <t>商品标题</t>
-  </si>
-  <si>
-    <t>reserve_price</t>
-  </si>
-  <si>
-    <t>当前商品价格</t>
-  </si>
-  <si>
-    <t>cate_id</t>
-  </si>
-  <si>
-    <t>商品叶子类目ID</t>
-  </si>
-  <si>
-    <t>cate_name</t>
-  </si>
-  <si>
-    <t>商品叶子类目名称</t>
-  </si>
-  <si>
-    <t>cate_level</t>
-  </si>
-  <si>
-    <t>叶子类目层级</t>
-  </si>
-  <si>
-    <t>cate_level1_id</t>
-  </si>
-  <si>
-    <t>一级类目ID</t>
-  </si>
-  <si>
-    <t>cate_level2_id</t>
-  </si>
-  <si>
-    <t>二级类目ID</t>
-  </si>
-  <si>
-    <t>cate_level3_id</t>
-  </si>
-  <si>
-    <t>三级类目ID</t>
-  </si>
-  <si>
-    <t>cate_level4_id</t>
-  </si>
-  <si>
-    <t>四级类目ID</t>
-  </si>
-  <si>
-    <t>cate_level5_id</t>
-  </si>
-  <si>
-    <t>五级类目ID</t>
-  </si>
-  <si>
-    <t>cate_level1_name</t>
-  </si>
-  <si>
-    <t>一级类目名称</t>
-  </si>
-  <si>
-    <t>cate_level2_name</t>
-  </si>
-  <si>
-    <t>二级类目名称</t>
-  </si>
-  <si>
-    <t>cate_level3_name</t>
-  </si>
-  <si>
-    <t>三级类目名称</t>
-  </si>
-  <si>
-    <t>cate_level4_name</t>
-  </si>
-  <si>
-    <t>四级类目名称</t>
-  </si>
-  <si>
-    <t>cate_level5_name</t>
-  </si>
-  <si>
-    <t>五级类目名称</t>
-  </si>
-  <si>
-    <t>commodity_id</t>
-  </si>
-  <si>
-    <t>品类ID</t>
-  </si>
-  <si>
-    <t>commodity_name</t>
-  </si>
-  <si>
-    <t>品类名称</t>
-  </si>
-  <si>
-    <t>消费行为时间</t>
-  </si>
-  <si>
-    <t>日期 格式：YYYYMMDD</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为article和video，统计数量，作为两种不同内容分析</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_role</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>统计数量，作为feature</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容身份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作者身份</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作者影响力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_publish_content_cnt_td</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和account_id对应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>创作者id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和content_id对应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visite_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lead_pay_visitor_ids</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和商品id对应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消费者id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有些content后面没有商品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expo_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expo_uv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gmt_create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>publish_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>click_uv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_time_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>favor_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment_pv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>favor_uv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_uv_1d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>consume_uv_1d_valid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买行为的消费者id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1变量，大多是1？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1变量，μ=0.75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-1变量，μ=0.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长尾，μ=47，max=6969</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长尾，μ=8.8，max=735</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长尾，μ=2.5，max=225</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>长尾，μ=2.58，max=249</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问：为何有些创造者一天能发布这么多内容？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问：这里的0-1有什么含义？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=995，max=260w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=44，max=29w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=41，max=9w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=286，max=291w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=183，max=115w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=186，max=238w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=128，max=90w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下均长尾 μ=1026，max=261w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=281，max=291w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=87，max=162w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=181，max=115w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=59，max=63w</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量0值，μ=1.7，max=8986</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量0值，μ=1.47，max=8986</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量0值，μ=0.839，max=8985</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量0值，μ=0.038，max=796</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量0值，μ=0.25，max=2889</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量0值，μ=0.538，max=3278</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和content_id对应，engagement score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量0值，μ=0.191，max=3631</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=10，max=9w，近一半在1-10之间，一半零值，少数头部</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=1.03，max=3045，大量0值，10%为1；2以上不到10%</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大量0值，μ=0.21，max=499</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>μ=0.19，max=460，大量0值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问：成交uv和引导加购uv的区别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>问：如何定义种草？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1545,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1574,10 +1581,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>4</v>
@@ -1606,7 +1613,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -1629,7 +1636,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
@@ -1643,7 +1650,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -1652,10 +1659,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -1669,7 +1676,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1678,10 +1685,10 @@
         <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1695,7 +1702,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
@@ -1704,13 +1711,13 @@
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1733,10 +1740,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1759,10 +1766,10 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F8" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1785,10 +1792,10 @@
         <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F9" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1811,10 +1818,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
@@ -1837,10 +1844,10 @@
         <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1863,13 +1870,13 @@
         <v>31</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1892,10 +1899,10 @@
         <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1918,10 +1925,10 @@
         <v>35</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1944,10 +1951,10 @@
         <v>37</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
@@ -1970,7 +1977,7 @@
         <v>39</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1993,7 +2000,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I17" t="s">
         <v>12</v>
@@ -2016,7 +2023,7 @@
         <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -2039,7 +2046,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -2062,7 +2069,7 @@
         <v>47</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -2085,7 +2092,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -2108,7 +2115,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -2131,7 +2138,7 @@
         <v>53</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -2154,7 +2161,7 @@
         <v>55</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -2177,7 +2184,7 @@
         <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -2200,7 +2207,7 @@
         <v>59</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -2223,7 +2230,7 @@
         <v>61</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -2246,7 +2253,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -2269,7 +2276,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -2292,7 +2299,7 @@
         <v>67</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -2315,7 +2322,7 @@
         <v>69</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -2338,7 +2345,7 @@
         <v>71</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -2361,7 +2368,7 @@
         <v>73</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -2384,7 +2391,7 @@
         <v>75</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -2407,7 +2414,7 @@
         <v>77</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -2430,7 +2437,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2453,7 +2460,7 @@
         <v>82</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2476,7 +2483,7 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2499,7 +2506,7 @@
         <v>86</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I39" t="s">
         <v>12</v>
@@ -2522,7 +2529,7 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I40" t="s">
         <v>12</v>
@@ -2545,7 +2552,7 @@
         <v>90</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I41" t="s">
         <v>12</v>
@@ -2568,7 +2575,7 @@
         <v>92</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I42" t="s">
         <v>12</v>
@@ -2591,7 +2598,7 @@
         <v>94</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I43" t="s">
         <v>12</v>
@@ -2614,7 +2621,7 @@
         <v>96</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I44" t="s">
         <v>12</v>
@@ -2637,7 +2644,7 @@
         <v>98</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I45" t="s">
         <v>12</v>
@@ -2660,7 +2667,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I46" t="s">
         <v>12</v>
@@ -2683,7 +2690,7 @@
         <v>102</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I47" t="s">
         <v>12</v>
@@ -2697,7 +2704,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -2706,10 +2713,10 @@
         <v>103</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F48" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I48" t="s">
         <v>12</v>
@@ -2723,7 +2730,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -2732,10 +2739,10 @@
         <v>104</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F49" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I49" t="s">
         <v>12</v>
@@ -2749,7 +2756,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -2758,10 +2765,10 @@
         <v>105</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
@@ -2775,7 +2782,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -2784,10 +2791,10 @@
         <v>106</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
@@ -2801,7 +2808,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -2810,10 +2817,10 @@
         <v>107</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F52" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
@@ -2827,7 +2834,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -2836,7 +2843,7 @@
         <v>108</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
@@ -2850,7 +2857,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -2859,10 +2866,10 @@
         <v>109</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
@@ -2885,10 +2892,10 @@
         <v>111</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
@@ -2911,7 +2918,7 @@
         <v>113</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I56" t="s">
         <v>12</v>
@@ -2925,7 +2932,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A57" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -2934,10 +2941,10 @@
         <v>114</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F57" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="I57" t="s">
         <v>12</v>
@@ -2960,10 +2967,10 @@
         <v>116</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F58" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I58" t="s">
         <v>12</v>
@@ -2986,7 +2993,7 @@
         <v>118</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I59" t="s">
         <v>12</v>
@@ -3009,10 +3016,10 @@
         <v>120</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F60" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="I60" t="s">
         <v>12</v>
@@ -3035,7 +3042,7 @@
         <v>122</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I61" t="s">
         <v>12</v>
@@ -3058,7 +3065,7 @@
         <v>124</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I62" t="s">
         <v>12</v>
@@ -3081,7 +3088,7 @@
         <v>126</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I63" t="s">
         <v>12</v>
@@ -3104,10 +3111,10 @@
         <v>128</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F64" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I64" t="s">
         <v>12</v>
@@ -3130,10 +3137,10 @@
         <v>130</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F65" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="I65" t="s">
         <v>12</v>
@@ -3156,10 +3163,10 @@
         <v>132</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F66" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="I66" t="s">
         <v>12</v>
@@ -3173,19 +3180,19 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A67" t="s">
+        <v>313</v>
+      </c>
+      <c r="C67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s">
         <v>133</v>
       </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>134</v>
-      </c>
       <c r="E67" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F67" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I67" t="s">
         <v>12</v>
@@ -3199,16 +3206,16 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I68" t="s">
         <v>12</v>
@@ -3222,19 +3229,19 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
-      <c r="D69" t="s">
-        <v>136</v>
+      <c r="D69" s="10" t="s">
+        <v>135</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I69" t="s">
         <v>12</v>
@@ -3248,16 +3255,16 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I70" t="s">
         <v>12</v>
@@ -3271,19 +3278,19 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>314</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
       </c>
-      <c r="D71" t="s">
-        <v>139</v>
+      <c r="D71" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F71" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="I71" t="s">
         <v>12</v>
@@ -3297,16 +3304,16 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
       </c>
       <c r="D72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I72" t="s">
         <v>12</v>
@@ -3320,19 +3327,19 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>316</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
       </c>
-      <c r="D73" t="s">
-        <v>143</v>
+      <c r="D73" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F73" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I73" t="s">
         <v>12</v>
@@ -3346,16 +3353,16 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
       </c>
       <c r="D74" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I74" t="s">
         <v>12</v>
@@ -3369,19 +3376,19 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
       </c>
-      <c r="D75" t="s">
-        <v>147</v>
+      <c r="D75" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F75" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I75" t="s">
         <v>12</v>
@@ -3395,16 +3402,16 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I76" t="s">
         <v>12</v>
@@ -3418,19 +3425,19 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>317</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
       </c>
-      <c r="D77" t="s">
-        <v>151</v>
+      <c r="D77" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F77" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I77" t="s">
         <v>12</v>
@@ -3444,16 +3451,16 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I78" t="s">
         <v>12</v>
@@ -3467,16 +3474,16 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I79" t="s">
         <v>12</v>
@@ -3490,16 +3497,16 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I80" t="s">
         <v>12</v>
@@ -3513,19 +3520,19 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>318</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
       </c>
-      <c r="D81" t="s">
-        <v>159</v>
+      <c r="D81" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F81" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I81" t="s">
         <v>12</v>
@@ -3539,16 +3546,16 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A82" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I82" t="s">
         <v>12</v>
@@ -3562,16 +3569,16 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A83" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I83" t="s">
         <v>12</v>
@@ -3585,16 +3592,16 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
         <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I84" t="s">
         <v>12</v>
@@ -3608,19 +3615,19 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>319</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
       </c>
-      <c r="D85" t="s">
-        <v>167</v>
+      <c r="D85" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F85" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I85" t="s">
         <v>12</v>
@@ -3634,19 +3641,19 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
         <v>18</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F86" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="I86" t="s">
         <v>12</v>
@@ -3660,16 +3667,16 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
         <v>18</v>
       </c>
       <c r="D87" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I87" t="s">
         <v>12</v>
@@ -3683,16 +3690,16 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
         <v>81</v>
       </c>
       <c r="D88" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I88" t="s">
         <v>12</v>
@@ -3706,22 +3713,22 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C89" t="s">
         <v>18</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F89" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I89" t="s">
         <v>12</v>
@@ -3735,19 +3742,19 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
         <v>18</v>
       </c>
       <c r="D90" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I90" t="s">
         <v>12</v>
@@ -3761,16 +3768,16 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s">
         <v>18</v>
       </c>
       <c r="D91" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I91" t="s">
         <v>12</v>
@@ -3784,16 +3791,16 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
         <v>18</v>
       </c>
       <c r="D92" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I92" t="s">
         <v>12</v>
@@ -3807,16 +3814,16 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C93" t="s">
         <v>18</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I93" t="s">
         <v>12</v>
@@ -3830,16 +3837,16 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C94" t="s">
         <v>18</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I94" t="s">
         <v>12</v>
@@ -3853,16 +3860,16 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C95" t="s">
         <v>18</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I95" t="s">
         <v>12</v>
@@ -3876,16 +3883,16 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
         <v>18</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I96" t="s">
         <v>12</v>
@@ -3899,16 +3906,16 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C97" t="s">
         <v>18</v>
       </c>
       <c r="D97" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I97" t="s">
         <v>12</v>
@@ -3922,16 +3929,16 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A98" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C98" t="s">
         <v>18</v>
       </c>
       <c r="D98" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I98" t="s">
         <v>12</v>
@@ -3945,16 +3952,16 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C99" t="s">
         <v>18</v>
       </c>
       <c r="D99" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I99" t="s">
         <v>12</v>
@@ -3968,16 +3975,16 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C100" t="s">
         <v>81</v>
       </c>
       <c r="D100" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I100" t="s">
         <v>12</v>
@@ -3991,16 +3998,16 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C101" t="s">
         <v>18</v>
       </c>
       <c r="D101" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I101" t="s">
         <v>12</v>
@@ -4014,16 +4021,16 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I102" t="s">
         <v>12</v>
@@ -4037,16 +4044,16 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A103" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="I103" t="s">
         <v>12</v>
@@ -4060,19 +4067,19 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A104" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F104" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
@@ -4086,19 +4093,19 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F105" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
@@ -4112,19 +4119,19 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F106" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
@@ -4138,19 +4145,19 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F107" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I107" t="s">
         <v>12</v>
@@ -4164,19 +4171,19 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
         <v>18</v>
       </c>
       <c r="D108" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F108" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I108" t="s">
         <v>12</v>
@@ -4190,16 +4197,16 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I109" t="s">
         <v>12</v>
@@ -4213,16 +4220,16 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C110" t="s">
         <v>81</v>
       </c>
       <c r="D110" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I110" t="s">
         <v>12</v>
@@ -4236,16 +4243,16 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A111" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
         <v>18</v>
       </c>
       <c r="D111" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I111" t="s">
         <v>12</v>
@@ -4259,16 +4266,16 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A112" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I112" t="s">
         <v>12</v>
@@ -4282,16 +4289,16 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
         <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E113" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I113" t="s">
         <v>12</v>
@@ -4305,16 +4312,16 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C114" t="s">
         <v>18</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I114" t="s">
         <v>12</v>
@@ -4328,16 +4335,16 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
         <v>18</v>
       </c>
       <c r="D115" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I115" t="s">
         <v>12</v>
@@ -4351,16 +4358,16 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A116" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
         <v>18</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I116" t="s">
         <v>12</v>
@@ -4374,16 +4381,16 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A117" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C117" t="s">
         <v>18</v>
       </c>
       <c r="D117" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I117" t="s">
         <v>12</v>
@@ -4397,16 +4404,16 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C118" t="s">
         <v>18</v>
       </c>
       <c r="D118" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I118" t="s">
         <v>12</v>
@@ -4420,16 +4427,16 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A119" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I119" t="s">
         <v>12</v>
@@ -4443,16 +4450,16 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I120" t="s">
         <v>12</v>
@@ -4466,16 +4473,16 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A121" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I121" t="s">
         <v>12</v>
@@ -4489,16 +4496,16 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I122" t="s">
         <v>12</v>
@@ -4512,16 +4519,16 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A123" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C123" t="s">
         <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I123" t="s">
         <v>12</v>
@@ -4535,16 +4542,16 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A124" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
       </c>
       <c r="D124" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I124" t="s">
         <v>12</v>
@@ -4558,16 +4565,16 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A125" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
         <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I125" t="s">
         <v>12</v>
@@ -4581,16 +4588,16 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A126" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C126" t="s">
         <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I126" t="s">
         <v>12</v>
@@ -4604,13 +4611,13 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A127" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C127" t="s">
         <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="I127" t="s">
         <v>12</v>
@@ -4624,16 +4631,16 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A128" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C128" t="s">
         <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="I128" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J128" t="s">
         <v>13</v>

--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C2B9DF-0CF2-4B86-86DC-395E73F42BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A749AC-2F98-4909-B6E0-A97EB2836AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A749AC-2F98-4909-B6E0-A97EB2836AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6AA9C2-EEA2-49CF-8F71-71437C652888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="321">
   <si>
     <t>字段名称</t>
   </si>
@@ -1058,6 +1058,10 @@
   </si>
   <si>
     <t>cart_uv_1d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否只有部分有？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1552,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -3522,6 +3526,9 @@
       <c r="A81" t="s">
         <v>318</v>
       </c>
+      <c r="B81" s="3" t="s">
+        <v>320</v>
+      </c>
       <c r="C81" t="s">
         <v>18</v>
       </c>
@@ -3616,6 +3623,9 @@
     <row r="85" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A85" t="s">
         <v>319</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>

--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6AA9C2-EEA2-49CF-8F71-71437C652888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0145409-8FB6-4677-AE37-F46651159330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0145409-8FB6-4677-AE37-F46651159330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3862334-DA03-431E-BB8C-BFB5EED61ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>

--- a/data/爆款预测字段说明.xlsx
+++ b/data/爆款预测字段说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\Trendspotting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3862334-DA03-431E-BB8C-BFB5EED61ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF871518-305D-476F-B862-EFF599D2DD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -1557,21 +1557,21 @@
   <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.796875" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="20.8203125" defaultRowHeight="14" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="4" width="28.34765625" customWidth="1"/>
-    <col min="5" max="5" width="18.34765625" customWidth="1"/>
-    <col min="6" max="6" width="22.59765625" customWidth="1"/>
-    <col min="7" max="7" width="38.94921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5859375" customWidth="1"/>
+    <col min="4" max="4" width="28.3515625" customWidth="1"/>
+    <col min="5" max="5" width="18.3515625" customWidth="1"/>
+    <col min="6" max="6" width="22.5859375" customWidth="1"/>
+    <col min="7" max="7" width="38.9375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>275</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>243</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>83</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>87</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>261</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>262</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>266</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>267</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>268</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>269</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>273</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>110</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>274</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>115</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>123</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>127</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>131</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>313</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>272</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>271</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>314</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>316</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>315</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>144</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>317</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -3476,7 +3476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -3522,7 +3522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>318</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>154</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>319</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>161</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>163</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>165</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>167</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>169</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>173</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>177</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>179</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>181</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>183</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>185</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>187</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>189</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>191</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>263</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>264</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>265</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>196</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>198</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>200</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>202</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>204</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>208</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>210</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>212</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>214</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>216</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>218</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>220</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>222</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>224</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>226</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>228</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>230</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>232</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>234</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>236</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>256</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>255</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>253</v>
       </c>
